--- a/src/fsdata/00126380_annual.xlsx
+++ b/src/fsdata/00126380_annual.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundooedu\Desktop\DART_Crawling\src\fsdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFEF14-8739-4236-AB12-73D61FC5BFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6150" yWindow="900" windowWidth="21630" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="Data_cf" sheetId="7" r:id="rId7"/>
     <sheet name="Labels_cf" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1442,12 +1448,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1455,8 +1461,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1495,22 +1508,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1552,7 +1576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,9 +1608,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1618,6 +1660,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1793,25 +1853,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1864,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1899,7 +1965,7 @@
         <v>141429704000000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1937,7 +2003,7 @@
         <v>32111442000000</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1975,7 +2041,7 @@
         <v>52432411000000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2007,7 +2073,7 @@
         <v>3638460000000</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2039,7 +2105,7 @@
         <v>2703693000000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2071,7 +2137,7 @@
         <v>2001948000000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2109,7 +2175,7 @@
         <v>24279211000000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2147,7 +2213,7 @@
         <v>3521197000000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2185,7 +2251,7 @@
         <v>1439938000000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2223,7 +2289,7 @@
         <v>3502083000000</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2261,7 +2327,7 @@
         <v>18353503000000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2299,7 +2365,7 @@
         <v>1315653000000</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2334,7 +2400,7 @@
         <v>120744620000000</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2366,7 +2432,7 @@
         <v>6804276000000</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2395,7 +2461,7 @@
         <v>106751000000</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2424,7 +2490,7 @@
         <v>238309000000</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2456,7 +2522,7 @@
         <v>7301351000000</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2488,7 +2554,7 @@
         <v>775427000000</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2526,7 +2592,7 @@
         <v>5837884000000</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2564,7 +2630,7 @@
         <v>91473041000000</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2602,7 +2668,7 @@
         <v>5344020000000</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2640,7 +2706,7 @@
         <v>557091000000</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2678,7 +2744,7 @@
         <v>5321450000000</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2716,7 +2782,7 @@
         <v>1572027000000</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2751,7 +2817,7 @@
         <v>262174324000000</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2786,7 +2852,7 @@
         <v>54704095000000</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2824,7 +2890,7 @@
         <v>6485039000000</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2862,7 +2928,7 @@
         <v>12746789000000</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2900,7 +2966,7 @@
         <v>11525910000000</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2938,7 +3004,7 @@
         <v>1358878000000</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2976,7 +3042,7 @@
         <v>685028000000</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -3014,7 +3080,7 @@
         <v>12527300000000</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3052,7 +3118,7 @@
         <v>2837353000000</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -3090,7 +3156,7 @@
         <v>1232817000000</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -3128,7 +3194,7 @@
         <v>4597417000000</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3166,7 +3232,7 @@
         <v>351176000000</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -3201,7 +3267,7 @@
         <v>14507196000000</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -3239,7 +3305,7 @@
         <v>58542000000</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -3277,7 +3343,7 @@
         <v>1244238000000</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -3315,7 +3381,7 @@
         <v>3317054000000</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -3353,7 +3419,7 @@
         <v>173656000000</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -3391,7 +3457,7 @@
         <v>7293514000000</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -3429,7 +3495,7 @@
         <v>358126000000</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -3467,7 +3533,7 @@
         <v>2062066000000</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -3502,7 +3568,7 @@
         <v>69211291000000</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -3537,7 +3603,7 @@
         <v>186424328000000</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -3575,7 +3641,7 @@
         <v>897514000000</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -3616,7 +3682,7 @@
         <v>119467000000</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -3657,7 +3723,7 @@
         <v>778047000000</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -3695,7 +3761,7 @@
         <v>4403893000000</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -3733,7 +3799,7 @@
         <v>193086317000000</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -3771,7 +3837,7 @@
         <v>-11934586000000</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3806,7 +3872,7 @@
         <v>6538705000000</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3841,7 +3907,7 @@
         <v>192963033000000</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3877,19 +3943,21 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>182</v>
@@ -3907,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3925,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3945,7 +4013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3965,7 +4033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3985,7 +4053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4005,7 +4073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4022,7 +4090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4039,7 +4107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4059,7 +4127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4079,7 +4147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4099,7 +4167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4119,7 +4187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4139,7 +4207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4159,7 +4227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4179,7 +4247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4199,7 +4267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4219,7 +4287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4236,7 +4304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4253,7 +4321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4270,7 +4338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4290,7 +4358,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4310,7 +4378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4330,7 +4398,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4350,7 +4418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4370,7 +4438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -4390,7 +4458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -4410,7 +4478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -4430,7 +4498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -4450,7 +4518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -4470,7 +4538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -4490,7 +4558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -4510,7 +4578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -4530,7 +4598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -4550,7 +4618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -4570,7 +4638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -4590,7 +4658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -4610,7 +4678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -4630,7 +4698,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -4650,7 +4718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -4670,7 +4738,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -4690,7 +4758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -4710,7 +4778,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -4730,7 +4798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -4750,7 +4818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -4770,7 +4838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -4790,7 +4858,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -4810,7 +4878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -4830,7 +4898,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -4850,7 +4918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -4870,7 +4938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -4890,7 +4958,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -4910,7 +4978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -4930,7 +4998,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -4950,7 +5018,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -4970,7 +5038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -4990,7 +5058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -5011,28 +5079,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>189</v>
       </c>
@@ -5046,7 +5115,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -5079,7 +5148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -5111,7 +5180,7 @@
         <v>201866745000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5143,7 +5212,7 @@
         <v>120277715000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5175,7 +5244,7 @@
         <v>81589030000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5207,7 +5276,7 @@
         <v>52348358000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5239,7 +5308,7 @@
         <v>29240672000000</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5271,7 +5340,7 @@
         <v>3238261000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5303,7 +5372,7 @@
         <v>2463814000000</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5335,7 +5404,7 @@
         <v>19501000000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5367,7 +5436,7 @@
         <v>11385645000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5399,7 +5468,7 @@
         <v>10706613000000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5431,7 +5500,7 @@
         <v>30713652000000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5463,7 +5532,7 @@
         <v>7987560000000</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5495,7 +5564,7 @@
         <v>22726092000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5527,7 +5596,7 @@
         <v>22726092000000</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5562,7 +5631,7 @@
         <v>22415655000000</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5597,7 +5666,7 @@
         <v>310437000000</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5632,7 +5701,7 @@
         <v>157967</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5671,19 +5740,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>182</v>
@@ -5701,7 +5771,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -5719,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -5739,7 +5809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5759,7 +5829,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5779,7 +5849,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5799,7 +5869,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5819,7 +5889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5839,7 +5909,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5859,7 +5929,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5879,7 +5949,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5899,7 +5969,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5919,7 +5989,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5939,7 +6009,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5959,7 +6029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5979,7 +6049,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5999,7 +6069,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6019,7 +6089,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6039,7 +6109,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -6059,7 +6129,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6080,29 +6150,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>189</v>
       </c>
@@ -6116,7 +6187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -6152,7 +6223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -6184,7 +6255,7 @@
         <v>22726092000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6216,7 +6287,7 @@
         <v>1991400000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6251,7 +6322,7 @@
         <v>1014040000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6283,7 +6354,7 @@
         <v>-235865000000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6321,7 +6392,7 @@
         <v>50438000000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6359,7 +6430,7 @@
         <v>963602000000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6394,7 +6465,7 @@
         <v>977360000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6426,7 +6497,7 @@
         <v>-23839000000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6464,7 +6535,7 @@
         <v>-130337000000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6502,7 +6573,7 @@
         <v>1131536000000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6537,7 +6608,7 @@
         <v>-37121000000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6569,7 +6640,7 @@
         <v>24717492000000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6604,7 +6675,7 @@
         <v>24310814000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6643,19 +6714,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>182</v>
@@ -6673,7 +6745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -6691,7 +6763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -6711,7 +6783,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6731,7 +6803,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6751,7 +6823,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6768,7 +6840,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6788,7 +6860,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6808,7 +6880,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6828,7 +6900,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6848,7 +6920,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6868,7 +6940,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6888,7 +6960,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6908,7 +6980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6928,7 +7000,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6948,7 +7020,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6969,29 +7041,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>189</v>
       </c>
@@ -7005,7 +7078,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -7041,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -7073,7 +7146,7 @@
         <v>47385644000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7108,7 +7181,7 @@
         <v>52299610000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -7146,7 +7219,7 @@
         <v>22726092000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -7184,7 +7257,7 @@
         <v>30754471000000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -7222,7 +7295,7 @@
         <v>-1180953000000</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -7257,7 +7330,7 @@
         <v>1405085000000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -7292,7 +7365,7 @@
         <v>-443838000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -7327,7 +7400,7 @@
         <v>256851000000</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -7362,7 +7435,7 @@
         <v>-6132064000000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -7394,7 +7467,7 @@
         <v>-29658675000000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -7429,7 +7502,7 @@
         <v>-6780610000000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -7458,7 +7531,7 @@
         <v>-1436844000000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -7487,7 +7560,7 @@
         <v>-139668000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -7516,7 +7589,7 @@
         <v>3010003000000</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -7551,7 +7624,7 @@
         <v>789862000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -7586,7 +7659,7 @@
         <v>-1741547000000</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -7615,7 +7688,7 @@
         <v>2010356000000</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -7644,7 +7717,7 @@
         <v>-1498148000000</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -7670,7 +7743,7 @@
         <v>106751000000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -7696,7 +7769,7 @@
         <v>694584000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -7725,7 +7798,7 @@
         <v>-158716000000</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -7754,7 +7827,7 @@
         <v>16211000000</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -7783,7 +7856,7 @@
         <v>-456134000000</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -7812,7 +7885,7 @@
         <v>80138000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -7841,7 +7914,7 @@
         <v>-193848000000</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -7876,7 +7949,7 @@
         <v>2280203000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -7911,7 +7984,7 @@
         <v>-84306000000</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -7946,7 +8019,7 @@
         <v>270874000000</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -7981,7 +8054,7 @@
         <v>-24142973000000</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -8016,7 +8089,7 @@
         <v>6944000000</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -8051,7 +8124,7 @@
         <v>-1047668000000</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -8086,7 +8159,7 @@
         <v>-622050000000</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -8112,7 +8185,7 @@
         <v>1248834000000</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -8147,7 +8220,7 @@
         <v>19936000000</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -8179,7 +8252,7 @@
         <v>-8669514000000</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -8214,7 +8287,7 @@
         <v>1351037000000</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -8246,7 +8319,7 @@
         <v>-7707938000000</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -8278,7 +8351,7 @@
         <v>1041743000000</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -8313,7 +8386,7 @@
         <v>-252846000000</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -8348,7 +8421,7 @@
         <v>-3114742000000</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -8383,7 +8456,7 @@
         <v>13232000000</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -8415,7 +8488,7 @@
         <v>417243000000</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -8447,7 +8520,7 @@
         <v>9474698000000</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -8479,7 +8552,7 @@
         <v>22636744000000</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -8515,19 +8588,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>182</v>
@@ -8545,7 +8619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -8563,7 +8637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -8583,7 +8657,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -8603,7 +8677,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -8623,7 +8697,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -8643,7 +8717,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -8663,7 +8737,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -8683,7 +8757,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -8703,7 +8777,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -8723,7 +8797,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -8743,7 +8817,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -8763,7 +8837,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -8783,7 +8857,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -8800,7 +8874,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -8817,7 +8891,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -8837,7 +8911,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -8857,7 +8931,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -8877,7 +8951,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -8897,7 +8971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -8917,7 +8991,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -8934,7 +9008,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -8951,7 +9025,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -8968,7 +9042,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -8985,7 +9059,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -9002,7 +9076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -9019,7 +9093,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -9036,7 +9110,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -9056,7 +9130,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -9076,7 +9150,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -9096,7 +9170,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -9116,7 +9190,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -9136,7 +9210,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -9156,7 +9230,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -9176,7 +9250,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -9196,7 +9270,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -9216,7 +9290,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -9236,7 +9310,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -9256,7 +9330,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -9276,7 +9350,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -9296,7 +9370,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -9316,7 +9390,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -9336,7 +9410,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -9356,7 +9430,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -9376,7 +9450,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -9396,7 +9470,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -9416,7 +9490,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -9437,6 +9511,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>